--- a/static/evaluation/benchmark_protocol_template.xlsx
+++ b/static/evaluation/benchmark_protocol_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Constantin Schempp\0_HKA\PROMOTION\09_PYTHON\HKABenchmark\github_page\static\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D157C6-683D-4598-9191-22760B98CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E08B8-F9EB-4014-91AF-525CCD58A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="3510" windowWidth="25185" windowHeight="13395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7290" windowWidth="16440" windowHeight="28320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>process</t>
   </si>
@@ -64,24 +64,12 @@
   <si>
     <t>assembly</t>
   </si>
-  <si>
-    <t>grasp positioning pin</t>
-  </si>
-  <si>
-    <t>grasping</t>
-  </si>
-  <si>
-    <t>insert pin in housing</t>
-  </si>
-  <si>
-    <t>insertion</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +100,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEDB492"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +120,14 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -150,22 +150,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -175,8 +237,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,389 +528,999 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="10" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="H1" s="2">
         <v>1</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="2">
         <v>2</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="2">
         <v>3</v>
       </c>
-      <c r="I1" s="2">
+      <c r="K1" s="2">
         <v>4</v>
       </c>
-      <c r="J1" s="2">
+      <c r="L1" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="11">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="11">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="11">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="11">
+        <v>19</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11">
+        <v>21</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="11">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="11">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="11">
+        <v>28</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11">
+        <v>29</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="11">
+        <v>31</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="11">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="11">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13">
+        <v>34</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="11">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="11">
+        <v>36</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="11">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="11">
+        <v>38</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="11">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="11">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="11">
+        <v>41</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="11">
+        <v>42</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="11">
+        <v>43</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="11">
+        <v>44</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="11">
+        <v>45</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="11">
+        <v>46</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="11">
+        <v>47</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="11">
+        <v>48</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="11">
+        <v>49</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="11">
+        <v>50</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="11">
+        <v>51</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="11">
+        <v>52</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="11">
+        <v>53</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="11">
+        <v>54</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
